--- a/database/industries/dode/shedoos/cost/yearly.xlsx
+++ b/database/industries/dode/shedoos/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shedoos\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shedoos\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F169722-D053-4CCF-956E-05BBAE19672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCD9984-EC45-45F2-93D8-133C7EA39591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>عدد</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>اکستراکت - کربنات - ملاس</t>
@@ -650,12 +647,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -665,7 +662,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -677,7 +674,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -689,7 +686,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -699,7 +696,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -711,7 +708,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +720,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -733,7 +730,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -755,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -765,146 +762,146 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>688163</v>
+        <v>1307959</v>
       </c>
       <c r="F10" s="9">
-        <v>1307959</v>
+        <v>1841407</v>
       </c>
       <c r="G10" s="9">
-        <v>1841407</v>
+        <v>2024903</v>
       </c>
       <c r="H10" s="9">
-        <v>2024903</v>
+        <v>5958606</v>
       </c>
       <c r="I10" s="9">
-        <v>5958606</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7849470</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>40565</v>
+        <v>57324</v>
       </c>
       <c r="F11" s="11">
-        <v>57324</v>
+        <v>69565</v>
       </c>
       <c r="G11" s="11">
-        <v>69565</v>
+        <v>87309</v>
       </c>
       <c r="H11" s="11">
-        <v>87309</v>
+        <v>118777</v>
       </c>
       <c r="I11" s="11">
-        <v>118777</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>193535</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>152242</v>
+        <v>179482</v>
       </c>
       <c r="F12" s="9">
-        <v>179482</v>
+        <v>232994</v>
       </c>
       <c r="G12" s="9">
-        <v>232994</v>
+        <v>270421</v>
       </c>
       <c r="H12" s="9">
-        <v>270421</v>
+        <v>576344</v>
       </c>
       <c r="I12" s="9">
-        <v>576344</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>808550</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>880970</v>
+        <v>1544765</v>
       </c>
       <c r="F13" s="13">
-        <v>1544765</v>
+        <v>2143966</v>
       </c>
       <c r="G13" s="13">
-        <v>2143966</v>
+        <v>2382633</v>
       </c>
       <c r="H13" s="13">
-        <v>2382633</v>
+        <v>6653727</v>
       </c>
       <c r="I13" s="13">
-        <v>6653727</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8851555</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-20668</v>
+        <v>-30634</v>
       </c>
       <c r="F14" s="9">
-        <v>-30634</v>
+        <v>-20709</v>
       </c>
       <c r="G14" s="9">
-        <v>-20709</v>
+        <v>-22675</v>
       </c>
       <c r="H14" s="9">
-        <v>-22675</v>
+        <v>0</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-58614</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>860302</v>
+        <v>1514131</v>
       </c>
       <c r="F15" s="13">
-        <v>1514131</v>
+        <v>2123257</v>
       </c>
       <c r="G15" s="13">
-        <v>2123257</v>
+        <v>2359958</v>
       </c>
       <c r="H15" s="13">
-        <v>2359958</v>
+        <v>6653727</v>
       </c>
       <c r="I15" s="13">
-        <v>6653727</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8792941</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>13023</v>
+        <v>0</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -919,17 +916,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>-188</v>
       </c>
       <c r="F17" s="11">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
@@ -941,95 +938,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>873325</v>
+        <v>1513943</v>
       </c>
       <c r="F18" s="15">
-        <v>1513943</v>
+        <v>2123257</v>
       </c>
       <c r="G18" s="15">
-        <v>2123257</v>
+        <v>2359958</v>
       </c>
       <c r="H18" s="15">
-        <v>2359958</v>
+        <v>6653727</v>
       </c>
       <c r="I18" s="15">
-        <v>6653727</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8792941</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>27330</v>
+        <v>30590</v>
       </c>
       <c r="F19" s="11">
-        <v>30590</v>
+        <v>174177</v>
       </c>
       <c r="G19" s="11">
-        <v>174177</v>
+        <v>186698</v>
       </c>
       <c r="H19" s="11">
-        <v>186698</v>
+        <v>62170</v>
       </c>
       <c r="I19" s="11">
-        <v>62170</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139226</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-30590</v>
+        <v>-174177</v>
       </c>
       <c r="F20" s="9">
-        <v>-174177</v>
+        <v>-186698</v>
       </c>
       <c r="G20" s="9">
-        <v>-186698</v>
+        <v>-62170</v>
       </c>
       <c r="H20" s="9">
-        <v>-62170</v>
+        <v>-139226</v>
       </c>
       <c r="I20" s="9">
-        <v>-139226</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-150431</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>870065</v>
+        <v>1370356</v>
       </c>
       <c r="F21" s="13">
-        <v>1370356</v>
+        <v>2110736</v>
       </c>
       <c r="G21" s="13">
-        <v>2110736</v>
+        <v>2484486</v>
       </c>
       <c r="H21" s="13">
-        <v>2484486</v>
+        <v>6576671</v>
       </c>
       <c r="I21" s="13">
-        <v>6576671</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8781736</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1051,29 +1048,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>870065</v>
+        <v>1370356</v>
       </c>
       <c r="F23" s="13">
-        <v>1370356</v>
+        <v>2110736</v>
       </c>
       <c r="G23" s="13">
-        <v>2110736</v>
+        <v>2484486</v>
       </c>
       <c r="H23" s="13">
-        <v>2484486</v>
+        <v>6576671</v>
       </c>
       <c r="I23" s="13">
-        <v>6576671</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8781736</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1083,7 +1080,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1093,7 +1090,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1103,7 +1100,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1135,7 +1132,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1143,69 +1140,69 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>250959</v>
+      </c>
+      <c r="F29" s="9">
+        <v>370</v>
+      </c>
+      <c r="G29" s="9">
+        <v>357</v>
+      </c>
+      <c r="H29" s="9">
+        <v>581661</v>
+      </c>
+      <c r="I29" s="9">
+        <v>500486</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="9">
-        <v>250959</v>
-      </c>
-      <c r="G29" s="9">
-        <v>370</v>
-      </c>
-      <c r="H29" s="9">
-        <v>357</v>
-      </c>
-      <c r="I29" s="9">
-        <v>581661</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>3672228</v>
       </c>
       <c r="F30" s="11">
-        <v>3672228</v>
+        <v>1513</v>
       </c>
       <c r="G30" s="11">
-        <v>1513</v>
+        <v>1448</v>
       </c>
       <c r="H30" s="11">
-        <v>1448</v>
+        <v>5150073</v>
       </c>
       <c r="I30" s="11">
-        <v>5150073</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5099711</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>0</v>
+        <v>3923187</v>
       </c>
       <c r="F31" s="15">
-        <v>3923187</v>
+        <v>1883</v>
       </c>
       <c r="G31" s="15">
-        <v>1883</v>
+        <v>1805</v>
       </c>
       <c r="H31" s="15">
-        <v>1805</v>
+        <v>5731734</v>
       </c>
       <c r="I31" s="15">
-        <v>5731734</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5600197</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1215,7 +1212,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1225,7 +1222,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1235,9 +1232,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1257,7 +1254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1267,7 +1264,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -1275,69 +1272,69 @@
         <v>25</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="9">
+        <v>1139638</v>
+      </c>
+      <c r="F37" s="9">
+        <v>646</v>
+      </c>
+      <c r="G37" s="9">
+        <v>905</v>
+      </c>
+      <c r="H37" s="9">
+        <v>758417</v>
+      </c>
+      <c r="I37" s="9">
+        <v>559581</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="9">
-        <v>1139638</v>
-      </c>
-      <c r="G37" s="9">
-        <v>646</v>
-      </c>
-      <c r="H37" s="9">
-        <v>905</v>
-      </c>
-      <c r="I37" s="9">
-        <v>758417</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
+      <c r="E38" s="11">
+        <v>50644091</v>
       </c>
       <c r="F38" s="11">
-        <v>50644091</v>
+        <v>55217</v>
       </c>
       <c r="G38" s="11">
-        <v>55217</v>
+        <v>52902</v>
       </c>
       <c r="H38" s="11">
-        <v>52902</v>
+        <v>65754320</v>
       </c>
       <c r="I38" s="11">
-        <v>65754320</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>57809860</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>51783729</v>
       </c>
       <c r="F39" s="15">
-        <v>51783729</v>
+        <v>55863</v>
       </c>
       <c r="G39" s="15">
-        <v>55863</v>
+        <v>53807</v>
       </c>
       <c r="H39" s="15">
-        <v>53807</v>
+        <v>66512737</v>
       </c>
       <c r="I39" s="15">
-        <v>66512737</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>58369441</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1347,7 +1344,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1357,7 +1354,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1367,9 +1364,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1389,7 +1386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1399,7 +1396,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -1407,69 +1404,69 @@
         <v>25</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="9">
+        <v>1028921</v>
+      </c>
+      <c r="F45" s="9">
+        <v>661</v>
+      </c>
+      <c r="G45" s="9">
+        <v>681</v>
+      </c>
+      <c r="H45" s="9">
+        <v>839592</v>
+      </c>
+      <c r="I45" s="9">
+        <v>716958</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="9">
-        <v>1028921</v>
-      </c>
-      <c r="G45" s="9">
-        <v>661</v>
-      </c>
-      <c r="H45" s="9">
-        <v>681</v>
-      </c>
-      <c r="I45" s="9">
-        <v>839592</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>26</v>
+      <c r="E46" s="11">
+        <v>52803446</v>
       </c>
       <c r="F46" s="11">
-        <v>52803446</v>
+        <v>55281</v>
       </c>
       <c r="G46" s="11">
-        <v>55281</v>
+        <v>49200</v>
       </c>
       <c r="H46" s="11">
-        <v>49200</v>
+        <v>65804682</v>
       </c>
       <c r="I46" s="11">
-        <v>65804682</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>58491863</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>53832367</v>
       </c>
       <c r="F47" s="15">
-        <v>53832367</v>
+        <v>55942</v>
       </c>
       <c r="G47" s="15">
-        <v>55942</v>
+        <v>49881</v>
       </c>
       <c r="H47" s="15">
-        <v>49881</v>
+        <v>66644274</v>
       </c>
       <c r="I47" s="15">
-        <v>66644274</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59208821</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1479,7 +1476,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1489,7 +1486,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1499,9 +1496,9 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1521,7 +1518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1531,7 +1528,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -1539,69 +1536,69 @@
         <v>25</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="9">
+        <v>361676</v>
+      </c>
+      <c r="F53" s="9">
+        <v>355</v>
+      </c>
+      <c r="G53" s="9">
+        <v>581</v>
+      </c>
+      <c r="H53" s="9">
+        <v>500486</v>
+      </c>
+      <c r="I53" s="9">
+        <v>343109</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="9">
-        <v>361676</v>
-      </c>
-      <c r="G53" s="9">
-        <v>355</v>
-      </c>
-      <c r="H53" s="9">
-        <v>581</v>
-      </c>
-      <c r="I53" s="9">
-        <v>500486</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>26</v>
+      <c r="E54" s="11">
+        <v>1512873</v>
       </c>
       <c r="F54" s="11">
-        <v>1512873</v>
+        <v>1449</v>
       </c>
       <c r="G54" s="11">
-        <v>1449</v>
+        <v>5150</v>
       </c>
       <c r="H54" s="11">
-        <v>5150</v>
+        <v>5099711</v>
       </c>
       <c r="I54" s="11">
-        <v>5099711</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4417708</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>0</v>
+        <v>1874549</v>
       </c>
       <c r="F55" s="15">
-        <v>1874549</v>
+        <v>1804</v>
       </c>
       <c r="G55" s="15">
-        <v>1804</v>
+        <v>5731</v>
       </c>
       <c r="H55" s="15">
-        <v>5731</v>
+        <v>5600197</v>
       </c>
       <c r="I55" s="15">
-        <v>5600197</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4760817</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1611,7 +1608,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1621,7 +1618,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1631,9 +1628,9 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1653,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1663,77 +1660,77 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="9">
+        <v>3136</v>
+      </c>
+      <c r="F61" s="9">
+        <v>13860</v>
+      </c>
+      <c r="G61" s="9">
+        <v>12752</v>
+      </c>
+      <c r="H61" s="9">
+        <v>67865</v>
+      </c>
+      <c r="I61" s="9">
+        <v>61878</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="9">
-        <v>3136</v>
-      </c>
-      <c r="G61" s="9">
-        <v>13860</v>
-      </c>
-      <c r="H61" s="9">
-        <v>12752</v>
-      </c>
-      <c r="I61" s="9">
-        <v>67865</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C62" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
+      <c r="E62" s="11">
+        <v>53513</v>
       </c>
       <c r="F62" s="11">
-        <v>53513</v>
+        <v>39341</v>
       </c>
       <c r="G62" s="11">
-        <v>39341</v>
+        <v>43839</v>
       </c>
       <c r="H62" s="11">
-        <v>43839</v>
+        <v>323013</v>
       </c>
       <c r="I62" s="11">
-        <v>323013</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>587362</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>0</v>
+        <v>56649</v>
       </c>
       <c r="F63" s="15">
-        <v>56649</v>
+        <v>53201</v>
       </c>
       <c r="G63" s="15">
-        <v>53201</v>
+        <v>56591</v>
       </c>
       <c r="H63" s="15">
-        <v>56591</v>
+        <v>390878</v>
       </c>
       <c r="I63" s="15">
-        <v>390878</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>649240</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1743,7 +1740,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1753,7 +1750,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1763,9 +1760,9 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1785,7 +1782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1795,77 +1792,77 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="9">
+        <v>35381</v>
+      </c>
+      <c r="F69" s="9">
+        <v>44529</v>
+      </c>
+      <c r="G69" s="9">
+        <v>109180</v>
+      </c>
+      <c r="H69" s="9">
+        <v>115201</v>
+      </c>
+      <c r="I69" s="9">
+        <v>107102</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="9">
-        <v>35381</v>
-      </c>
-      <c r="G69" s="9">
-        <v>44529</v>
-      </c>
-      <c r="H69" s="9">
-        <v>109180</v>
-      </c>
-      <c r="I69" s="9">
-        <v>115201</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C70" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>26</v>
+      <c r="E70" s="11">
+        <v>1269126</v>
       </c>
       <c r="F70" s="11">
-        <v>1269126</v>
+        <v>1800539</v>
       </c>
       <c r="G70" s="11">
-        <v>1800539</v>
+        <v>2250003</v>
       </c>
       <c r="H70" s="11">
-        <v>2250003</v>
+        <v>6097916</v>
       </c>
       <c r="I70" s="11">
-        <v>6097916</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7653425</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>0</v>
+        <v>1304507</v>
       </c>
       <c r="F71" s="15">
-        <v>1304507</v>
+        <v>1845068</v>
       </c>
       <c r="G71" s="15">
-        <v>1845068</v>
+        <v>2359183</v>
       </c>
       <c r="H71" s="15">
-        <v>2359183</v>
+        <v>6213117</v>
       </c>
       <c r="I71" s="15">
-        <v>6213117</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7760527</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1875,7 +1872,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1885,7 +1882,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1895,9 +1892,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1917,7 +1914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1927,77 +1924,77 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="9">
+        <v>24760</v>
+      </c>
+      <c r="F77" s="9">
+        <v>45317</v>
+      </c>
+      <c r="G77" s="9">
+        <v>54074</v>
+      </c>
+      <c r="H77" s="9">
+        <v>121188</v>
+      </c>
+      <c r="I77" s="9">
+        <v>131000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="9">
-        <v>24760</v>
-      </c>
-      <c r="G77" s="9">
-        <v>45317</v>
-      </c>
-      <c r="H77" s="9">
-        <v>54074</v>
-      </c>
-      <c r="I77" s="9">
-        <v>121188</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C78" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>26</v>
+      <c r="E78" s="11">
+        <v>1283199</v>
       </c>
       <c r="F78" s="11">
-        <v>1283199</v>
+        <v>1796090</v>
       </c>
       <c r="G78" s="11">
-        <v>1796090</v>
+        <v>1970829</v>
       </c>
       <c r="H78" s="11">
-        <v>1970829</v>
+        <v>5837418</v>
       </c>
       <c r="I78" s="11">
-        <v>5837418</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7718470</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>0</v>
+        <v>1307959</v>
       </c>
       <c r="F79" s="15">
-        <v>1307959</v>
+        <v>1841407</v>
       </c>
       <c r="G79" s="15">
-        <v>1841407</v>
+        <v>2024903</v>
       </c>
       <c r="H79" s="15">
-        <v>2024903</v>
+        <v>5958606</v>
       </c>
       <c r="I79" s="15">
-        <v>5958606</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7849470</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2007,7 +2004,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2017,7 +2014,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2027,9 +2024,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2049,7 +2046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2059,77 +2056,77 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="9">
+        <v>13757</v>
+      </c>
+      <c r="F85" s="9">
+        <v>13072</v>
+      </c>
+      <c r="G85" s="9">
+        <v>67858</v>
+      </c>
+      <c r="H85" s="9">
+        <v>61878</v>
+      </c>
+      <c r="I85" s="9">
+        <v>37980</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="9">
-        <v>13757</v>
-      </c>
-      <c r="G85" s="9">
-        <v>13072</v>
-      </c>
-      <c r="H85" s="9">
-        <v>67858</v>
-      </c>
-      <c r="I85" s="9">
-        <v>61878</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C86" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
+      <c r="E86" s="11">
+        <v>39440</v>
       </c>
       <c r="F86" s="11">
-        <v>39440</v>
+        <v>43790</v>
       </c>
       <c r="G86" s="11">
-        <v>43790</v>
+        <v>323013</v>
       </c>
       <c r="H86" s="11">
-        <v>323013</v>
+        <v>583511</v>
       </c>
       <c r="I86" s="11">
-        <v>583511</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>522317</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>0</v>
+        <v>53197</v>
       </c>
       <c r="F87" s="15">
-        <v>53197</v>
+        <v>56862</v>
       </c>
       <c r="G87" s="15">
-        <v>56862</v>
+        <v>390871</v>
       </c>
       <c r="H87" s="15">
-        <v>390871</v>
+        <v>645389</v>
       </c>
       <c r="I87" s="15">
-        <v>645389</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>560297</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2139,7 +2136,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2149,7 +2146,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2159,9 +2156,9 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2181,7 +2178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2191,55 +2188,55 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C93" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9">
+        <v>12496</v>
+      </c>
+      <c r="F93" s="9">
+        <v>37459459</v>
+      </c>
+      <c r="G93" s="9">
+        <v>35719888</v>
+      </c>
+      <c r="H93" s="9">
+        <v>116674</v>
+      </c>
+      <c r="I93" s="9">
+        <v>123636</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" s="9">
-        <v>12496</v>
-      </c>
-      <c r="G93" s="9">
-        <v>37459459</v>
-      </c>
-      <c r="H93" s="9">
-        <v>35719888</v>
-      </c>
-      <c r="I93" s="9">
-        <v>116674</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>26</v>
+      <c r="E94" s="11">
+        <v>14572</v>
       </c>
       <c r="F94" s="11">
-        <v>14572</v>
+        <v>26001983</v>
       </c>
       <c r="G94" s="11">
-        <v>26001983</v>
+        <v>30275552</v>
       </c>
       <c r="H94" s="11">
-        <v>30275552</v>
+        <v>62720</v>
       </c>
       <c r="I94" s="11">
-        <v>62720</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>115176</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2249,7 +2246,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2259,7 +2256,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2269,9 +2266,9 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -2291,7 +2288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2301,55 +2298,55 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C100" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9">
+        <v>31046</v>
+      </c>
+      <c r="F100" s="9">
+        <v>68930341</v>
+      </c>
+      <c r="G100" s="9">
+        <v>120640884</v>
+      </c>
+      <c r="H100" s="9">
+        <v>151897</v>
+      </c>
+      <c r="I100" s="9">
+        <v>191397</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F100" s="9">
-        <v>31046</v>
-      </c>
-      <c r="G100" s="9">
-        <v>68930341</v>
-      </c>
-      <c r="H100" s="9">
-        <v>120640884</v>
-      </c>
-      <c r="I100" s="9">
-        <v>151897</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
-        <v>26</v>
+      <c r="E101" s="11">
+        <v>25060</v>
       </c>
       <c r="F101" s="11">
-        <v>25060</v>
+        <v>32608418</v>
       </c>
       <c r="G101" s="11">
-        <v>32608418</v>
+        <v>42531530</v>
       </c>
       <c r="H101" s="11">
-        <v>42531530</v>
+        <v>92738</v>
       </c>
       <c r="I101" s="11">
-        <v>92738</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>132390</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2359,7 +2356,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2369,7 +2366,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2379,9 +2376,9 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2401,7 +2398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2411,55 +2408,55 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9">
+        <v>24064</v>
+      </c>
+      <c r="F107" s="9">
+        <v>68558245</v>
+      </c>
+      <c r="G107" s="9">
+        <v>79403818</v>
+      </c>
+      <c r="H107" s="9">
+        <v>144342</v>
+      </c>
+      <c r="I107" s="9">
+        <v>182716</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" s="9">
-        <v>24064</v>
-      </c>
-      <c r="G107" s="9">
-        <v>68558245</v>
-      </c>
-      <c r="H107" s="9">
-        <v>79403818</v>
-      </c>
-      <c r="I107" s="9">
-        <v>144342</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>26</v>
+      <c r="E108" s="11">
+        <v>24301</v>
       </c>
       <c r="F108" s="11">
-        <v>24301</v>
+        <v>32490187</v>
       </c>
       <c r="G108" s="11">
-        <v>32490187</v>
+        <v>40057500</v>
       </c>
       <c r="H108" s="11">
-        <v>40057500</v>
+        <v>88708</v>
       </c>
       <c r="I108" s="11">
-        <v>88708</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>131958</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2469,7 +2466,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2479,7 +2476,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2489,9 +2486,9 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2511,7 +2508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2521,7 +2518,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>24</v>
       </c>
@@ -2529,47 +2526,47 @@
         <v>25</v>
       </c>
       <c r="D114" s="9"/>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="9">
+        <v>38037</v>
+      </c>
+      <c r="F114" s="9">
+        <v>36822535</v>
+      </c>
+      <c r="G114" s="9">
+        <v>116795181</v>
+      </c>
+      <c r="H114" s="9">
+        <v>123636</v>
+      </c>
+      <c r="I114" s="9">
+        <v>110694</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F114" s="9">
-        <v>38037</v>
-      </c>
-      <c r="G114" s="9">
-        <v>36822535</v>
-      </c>
-      <c r="H114" s="9">
-        <v>116795181</v>
-      </c>
-      <c r="I114" s="9">
-        <v>123636</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="10" t="s">
+      <c r="C115" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="11" t="s">
-        <v>26</v>
+      <c r="E115" s="11">
+        <v>26070</v>
       </c>
       <c r="F115" s="11">
-        <v>26070</v>
+        <v>30220842</v>
       </c>
       <c r="G115" s="11">
-        <v>30220842</v>
+        <v>62720971</v>
       </c>
       <c r="H115" s="11">
-        <v>62720971</v>
+        <v>114420</v>
       </c>
       <c r="I115" s="11">
-        <v>114420</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>118233</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2579,7 +2576,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2589,7 +2586,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2599,9 +2596,9 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -2621,7 +2618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2631,9 +2628,9 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -2653,9 +2650,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -2675,9 +2672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -2697,9 +2694,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -2719,9 +2716,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -2741,75 +2738,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>45464</v>
+        <v>45837</v>
       </c>
       <c r="F126" s="11">
-        <v>45837</v>
+        <v>60196</v>
       </c>
       <c r="G126" s="11">
-        <v>60196</v>
+        <v>53065</v>
       </c>
       <c r="H126" s="11">
-        <v>53065</v>
+        <v>200071</v>
       </c>
       <c r="I126" s="11">
-        <v>200071</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>236541</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>13563</v>
+        <v>16000</v>
       </c>
       <c r="F127" s="9">
-        <v>16000</v>
+        <v>10805</v>
       </c>
       <c r="G127" s="9">
-        <v>10805</v>
+        <v>10147</v>
       </c>
       <c r="H127" s="9">
-        <v>10147</v>
+        <v>63833</v>
       </c>
       <c r="I127" s="9">
-        <v>63833</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>74726</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>67846</v>
+        <v>81933</v>
       </c>
       <c r="F128" s="11">
-        <v>81933</v>
+        <v>105243</v>
       </c>
       <c r="G128" s="11">
-        <v>105243</v>
+        <v>132230</v>
       </c>
       <c r="H128" s="11">
-        <v>132230</v>
+        <v>195761</v>
       </c>
       <c r="I128" s="11">
-        <v>195761</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>295411</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -2829,65 +2826,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>25369</v>
+        <v>35712</v>
       </c>
       <c r="F130" s="11">
-        <v>35712</v>
+        <v>56750</v>
       </c>
       <c r="G130" s="11">
-        <v>56750</v>
+        <v>74979</v>
       </c>
       <c r="H130" s="11">
-        <v>74979</v>
+        <v>116679</v>
       </c>
       <c r="I130" s="11">
-        <v>116679</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>201872</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>152242</v>
+        <v>179482</v>
       </c>
       <c r="F131" s="15">
-        <v>179482</v>
+        <v>232994</v>
       </c>
       <c r="G131" s="15">
-        <v>232994</v>
+        <v>270421</v>
       </c>
       <c r="H131" s="15">
-        <v>270421</v>
+        <v>576344</v>
       </c>
       <c r="I131" s="15">
-        <v>576344</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>808550</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
